--- a/TuesdayStatus.xlsx
+++ b/TuesdayStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Tuesday Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B5745-5D22-46EF-BF80-74F87E7A9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC61679-DD76-4BC0-B17A-F05026F76DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,10 +141,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,19 +190,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -227,6 +250,12 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -239,6 +268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -255,13 +285,7 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -282,11 +306,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11B56F8D-ABCB-404F-9974-E35BE2246CE9}" name="Tabela1" displayName="Tabela1" ref="A1:B19" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11B56F8D-ABCB-404F-9974-E35BE2246CE9}" name="Tabela1" displayName="Tabela1" ref="A1:B19" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:B19" xr:uid="{11B56F8D-ABCB-404F-9974-E35BE2246CE9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2E8A7B06-12D8-4A79-9DD3-ACD806AB23CA}" name="Tarefa" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{48A4B6F1-20BA-4466-A378-F58FA46188A8}" name="Status " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2E8A7B06-12D8-4A79-9DD3-ACD806AB23CA}" name="Tarefa" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{48A4B6F1-20BA-4466-A378-F58FA46188A8}" name="Status " dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,22 +635,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="63" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.5703125" customWidth="1"/>
-    <col min="2" max="2" width="79.140625" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +658,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -642,7 +666,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -650,7 +674,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -658,7 +682,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -666,7 +690,7 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -674,7 +698,7 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -682,7 +706,7 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -690,7 +714,7 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -698,7 +722,7 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -706,7 +730,7 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -714,7 +738,7 @@
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -722,7 +746,7 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -730,7 +754,7 @@
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -738,7 +762,7 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -746,15 +770,15 @@
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -762,201 +786,201 @@
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
